--- a/biology/Microbiologie/Lysine_de_Taylor/Lysine_de_Taylor.xlsx
+++ b/biology/Microbiologie/Lysine_de_Taylor/Lysine_de_Taylor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lysine de Taylor est un milieu de culture.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Recherche de la LDC (lysine décarboxylase).
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu peut être supplémenté de 9 g/L environ de NaCl pour permettre la culture des bactéries halophies (Vibrio par ex.)
 </t>
@@ -573,7 +589,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu est acheté prêt à l'emploi ou fabriqué à partir des différents constituants. Il est indispensable de contrôler le pH. Pour utiliser la forme DL de l'acide aminé, il est indispensable de doubler la dose. Autoclavage classique.
 </t>
@@ -604,7 +622,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alcalinisation avec culture montre la présence d'une LDC (milieu violet et trouble). Un milieu acide montre la fermentation du glucose et l'absence de la LDC. La quasi-totalité des bactéries fermentent le glucose et donc, acidifient dans un premier temps le milieu en produisant des acides organiques et du dioxyde de carbone, emprisonnés dans le milieu. Le glucose est rapidement épuisé (1 g/L) et les bactéries vont :
 si elles sont LDC -, utiliser les peptones du milieu par fermentation (extrait de levure) et alcaliniser légèrement le milieu mais pas suffisamment pour contrer l'acidification précédente. Le milieu est jaune (et trouble puisqu'il y a culture).
